--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Inhbb-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Inhbb-Acvr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Inhbb</t>
   </si>
   <si>
     <t>Acvr1b</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.525153666666667</v>
+        <v>1.165518666666667</v>
       </c>
       <c r="H2">
-        <v>7.575461000000001</v>
+        <v>3.496556</v>
       </c>
       <c r="I2">
-        <v>0.7378191762484796</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="J2">
-        <v>0.7378191762484798</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.548026</v>
+        <v>3.063353333333333</v>
       </c>
       <c r="N2">
-        <v>7.644078</v>
+        <v>9.190059999999999</v>
       </c>
       <c r="O2">
-        <v>0.1809961777378536</v>
+        <v>0.1884019917097105</v>
       </c>
       <c r="P2">
-        <v>0.1809961777378536</v>
+        <v>0.1884019917097105</v>
       </c>
       <c r="Q2">
-        <v>6.434157196662</v>
+        <v>3.570395492595555</v>
       </c>
       <c r="R2">
-        <v>57.90741476995801</v>
+        <v>32.13355943336</v>
       </c>
       <c r="S2">
-        <v>0.1335424507626665</v>
+        <v>0.03558248688701115</v>
       </c>
       <c r="T2">
-        <v>0.1335424507626666</v>
+        <v>0.03558248688701115</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.525153666666667</v>
+        <v>1.165518666666667</v>
       </c>
       <c r="H3">
-        <v>7.575461000000001</v>
+        <v>3.496556</v>
       </c>
       <c r="I3">
-        <v>0.7378191762484796</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="J3">
-        <v>0.7378191762484798</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>20.272974</v>
       </c>
       <c r="O3">
-        <v>0.4800226796977849</v>
+        <v>0.4156086771445645</v>
       </c>
       <c r="P3">
-        <v>0.4800226796977849</v>
+        <v>0.4156086771445645</v>
       </c>
       <c r="Q3">
-        <v>17.06412487677933</v>
+        <v>7.876176541949332</v>
       </c>
       <c r="R3">
-        <v>153.577123891014</v>
+        <v>70.885588877544</v>
       </c>
       <c r="S3">
-        <v>0.3541699381152074</v>
+        <v>0.07849381086910399</v>
       </c>
       <c r="T3">
-        <v>0.3541699381152076</v>
+        <v>0.07849381086910401</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.525153666666667</v>
+        <v>1.165518666666667</v>
       </c>
       <c r="H4">
-        <v>7.575461000000001</v>
+        <v>3.496556</v>
       </c>
       <c r="I4">
-        <v>0.7378191762484796</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="J4">
-        <v>0.7378191762484798</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.525989333333333</v>
+        <v>3.493414666666666</v>
       </c>
       <c r="N4">
-        <v>4.577968</v>
+        <v>10.480244</v>
       </c>
       <c r="O4">
-        <v>0.108396945950343</v>
+        <v>0.214851572590793</v>
       </c>
       <c r="P4">
-        <v>0.108396945950343</v>
+        <v>0.214851572590793</v>
       </c>
       <c r="Q4">
-        <v>3.853357560360889</v>
+        <v>4.071640004407111</v>
       </c>
       <c r="R4">
-        <v>34.680218043248</v>
+        <v>36.644760039664</v>
       </c>
       <c r="S4">
-        <v>0.07997734536893306</v>
+        <v>0.04057787921979587</v>
       </c>
       <c r="T4">
-        <v>0.07997734536893308</v>
+        <v>0.04057787921979588</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.525153666666667</v>
+        <v>1.165518666666667</v>
       </c>
       <c r="H5">
-        <v>7.575461000000001</v>
+        <v>3.496556</v>
       </c>
       <c r="I5">
-        <v>0.7378191762484796</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="J5">
-        <v>0.7378191762484798</v>
+        <v>0.1888647065994748</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.246115666666666</v>
+        <v>2.945239333333333</v>
       </c>
       <c r="N5">
-        <v>9.738346999999999</v>
+        <v>8.835718</v>
       </c>
       <c r="O5">
-        <v>0.2305841966140185</v>
+        <v>0.1811377585549322</v>
       </c>
       <c r="P5">
-        <v>0.2305841966140185</v>
+        <v>0.1811377585549322</v>
       </c>
       <c r="Q5">
-        <v>8.196940878107444</v>
+        <v>3.432731420800889</v>
       </c>
       <c r="R5">
-        <v>73.77246790296699</v>
+        <v>30.894582787208</v>
       </c>
       <c r="S5">
-        <v>0.1701294420016726</v>
+        <v>0.03421052962356377</v>
       </c>
       <c r="T5">
-        <v>0.1701294420016726</v>
+        <v>0.03421052962356377</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>1.121927</v>
       </c>
       <c r="I6">
-        <v>0.1092711394000877</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="J6">
-        <v>0.1092711394000878</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.548026</v>
+        <v>3.063353333333333</v>
       </c>
       <c r="N6">
-        <v>7.644078</v>
+        <v>9.190059999999999</v>
       </c>
       <c r="O6">
-        <v>0.1809961777378536</v>
+        <v>0.1884019917097105</v>
       </c>
       <c r="P6">
-        <v>0.1809961777378536</v>
+        <v>0.1884019917097105</v>
       </c>
       <c r="Q6">
-        <v>0.9528997220340002</v>
+        <v>1.145619605068889</v>
       </c>
       <c r="R6">
-        <v>8.576097498306002</v>
+        <v>10.31057644562</v>
       </c>
       <c r="S6">
-        <v>0.01977765856847605</v>
+        <v>0.01141722104999427</v>
       </c>
       <c r="T6">
-        <v>0.01977765856847606</v>
+        <v>0.01141722104999427</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>1.121927</v>
       </c>
       <c r="I7">
-        <v>0.1092711394000877</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="J7">
-        <v>0.1092711394000878</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>20.272974</v>
       </c>
       <c r="O7">
-        <v>0.4800226796977849</v>
+        <v>0.4156086771445645</v>
       </c>
       <c r="P7">
-        <v>0.4800226796977849</v>
+        <v>0.4156086771445645</v>
       </c>
       <c r="Q7">
         <v>2.527199655655333</v>
@@ -883,10 +883,10 @@
         <v>22.744796900898</v>
       </c>
       <c r="S7">
-        <v>0.05245262514846032</v>
+        <v>0.02518601897036434</v>
       </c>
       <c r="T7">
-        <v>0.05245262514846034</v>
+        <v>0.02518601897036434</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>1.121927</v>
       </c>
       <c r="I8">
-        <v>0.1092711394000877</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="J8">
-        <v>0.1092711394000878</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.525989333333333</v>
+        <v>3.493414666666666</v>
       </c>
       <c r="N8">
-        <v>4.577968</v>
+        <v>10.480244</v>
       </c>
       <c r="O8">
-        <v>0.108396945950343</v>
+        <v>0.214851572590793</v>
       </c>
       <c r="P8">
-        <v>0.108396945950343</v>
+        <v>0.214851572590793</v>
       </c>
       <c r="Q8">
-        <v>0.5706828782595557</v>
+        <v>1.306452078909778</v>
       </c>
       <c r="R8">
-        <v>5.136145904336001</v>
+        <v>11.758068710188</v>
       </c>
       <c r="S8">
-        <v>0.01184465779148371</v>
+        <v>0.01302007412420334</v>
       </c>
       <c r="T8">
-        <v>0.01184465779148371</v>
+        <v>0.01302007412420334</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,10 +977,10 @@
         <v>1.121927</v>
       </c>
       <c r="I9">
-        <v>0.1092711394000877</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="J9">
-        <v>0.1092711394000878</v>
+        <v>0.06060032033836409</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.246115666666666</v>
+        <v>2.945239333333333</v>
       </c>
       <c r="N9">
-        <v>9.738346999999999</v>
+        <v>8.835718</v>
       </c>
       <c r="O9">
-        <v>0.2305841966140185</v>
+        <v>0.1811377585549322</v>
       </c>
       <c r="P9">
-        <v>0.2305841966140185</v>
+        <v>0.1811377585549322</v>
       </c>
       <c r="Q9">
-        <v>1.213968270518778</v>
+        <v>1.101447843176222</v>
       </c>
       <c r="R9">
-        <v>10.925714434669</v>
+        <v>9.913030588586</v>
       </c>
       <c r="S9">
-        <v>0.02519619789166765</v>
+        <v>0.01097700619380214</v>
       </c>
       <c r="T9">
-        <v>0.02519619789166766</v>
+        <v>0.01097700619380214</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5233266666666666</v>
+        <v>4.624333</v>
       </c>
       <c r="H10">
-        <v>1.56998</v>
+        <v>13.872999</v>
       </c>
       <c r="I10">
-        <v>0.1529096843514326</v>
+        <v>0.7493430352008683</v>
       </c>
       <c r="J10">
-        <v>0.1529096843514326</v>
+        <v>0.7493430352008682</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.548026</v>
+        <v>3.063353333333333</v>
       </c>
       <c r="N10">
-        <v>7.644078</v>
+        <v>9.190059999999999</v>
       </c>
       <c r="O10">
-        <v>0.1809961777378536</v>
+        <v>0.1884019917097105</v>
       </c>
       <c r="P10">
-        <v>0.1809961777378536</v>
+        <v>0.1884019917097105</v>
       </c>
       <c r="Q10">
-        <v>1.33344995316</v>
+        <v>14.16596590999333</v>
       </c>
       <c r="R10">
-        <v>12.00104957844</v>
+        <v>127.49369318994</v>
       </c>
       <c r="S10">
-        <v>0.02767606840671098</v>
+        <v>0.1411777203056433</v>
       </c>
       <c r="T10">
-        <v>0.02767606840671099</v>
+        <v>0.1411777203056433</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5233266666666666</v>
+        <v>4.624333</v>
       </c>
       <c r="H11">
-        <v>1.56998</v>
+        <v>13.872999</v>
       </c>
       <c r="I11">
-        <v>0.1529096843514326</v>
+        <v>0.7493430352008683</v>
       </c>
       <c r="J11">
-        <v>0.1529096843514326</v>
+        <v>0.7493430352008682</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>20.272974</v>
       </c>
       <c r="O11">
-        <v>0.4800226796977849</v>
+        <v>0.4156086771445645</v>
       </c>
       <c r="P11">
-        <v>0.4800226796977849</v>
+        <v>0.4156086771445645</v>
       </c>
       <c r="Q11">
-        <v>3.536462635613332</v>
+        <v>31.249660892114</v>
       </c>
       <c r="R11">
-        <v>31.82816372052</v>
+        <v>281.246948029026</v>
       </c>
       <c r="S11">
-        <v>0.07340011643411712</v>
+        <v>0.3114334675873257</v>
       </c>
       <c r="T11">
-        <v>0.07340011643411715</v>
+        <v>0.3114334675873257</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5233266666666666</v>
+        <v>4.624333</v>
       </c>
       <c r="H12">
-        <v>1.56998</v>
+        <v>13.872999</v>
       </c>
       <c r="I12">
-        <v>0.1529096843514326</v>
+        <v>0.7493430352008683</v>
       </c>
       <c r="J12">
-        <v>0.1529096843514326</v>
+        <v>0.7493430352008682</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.525989333333333</v>
+        <v>3.493414666666666</v>
       </c>
       <c r="N12">
-        <v>4.577968</v>
+        <v>10.480244</v>
       </c>
       <c r="O12">
-        <v>0.108396945950343</v>
+        <v>0.214851572590793</v>
       </c>
       <c r="P12">
-        <v>0.108396945950343</v>
+        <v>0.214851572590793</v>
       </c>
       <c r="Q12">
-        <v>0.7985909111822221</v>
+        <v>16.15471272575067</v>
       </c>
       <c r="R12">
-        <v>7.18731820064</v>
+        <v>145.392414531756</v>
       </c>
       <c r="S12">
-        <v>0.01657494278992625</v>
+        <v>0.1609975295228645</v>
       </c>
       <c r="T12">
-        <v>0.01657494278992626</v>
+        <v>0.1609975295228645</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.624333</v>
+      </c>
+      <c r="H13">
+        <v>13.872999</v>
+      </c>
+      <c r="I13">
+        <v>0.7493430352008683</v>
+      </c>
+      <c r="J13">
+        <v>0.7493430352008682</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.945239333333333</v>
+      </c>
+      <c r="N13">
+        <v>8.835718</v>
+      </c>
+      <c r="O13">
+        <v>0.1811377585549322</v>
+      </c>
+      <c r="P13">
+        <v>0.1811377585549322</v>
+      </c>
+      <c r="Q13">
+        <v>13.61976744203133</v>
+      </c>
+      <c r="R13">
+        <v>122.577906978282</v>
+      </c>
+      <c r="S13">
+        <v>0.1357343177850349</v>
+      </c>
+      <c r="T13">
+        <v>0.1357343177850349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.5233266666666666</v>
-      </c>
-      <c r="H13">
-        <v>1.56998</v>
-      </c>
-      <c r="I13">
-        <v>0.1529096843514326</v>
-      </c>
-      <c r="J13">
-        <v>0.1529096843514326</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.246115666666666</v>
-      </c>
-      <c r="N13">
-        <v>9.738346999999999</v>
-      </c>
-      <c r="O13">
-        <v>0.2305841966140185</v>
-      </c>
-      <c r="P13">
-        <v>0.2305841966140185</v>
-      </c>
-      <c r="Q13">
-        <v>1.698778891451111</v>
-      </c>
-      <c r="R13">
-        <v>15.28901002306</v>
-      </c>
-      <c r="S13">
-        <v>0.03525855672067824</v>
-      </c>
-      <c r="T13">
-        <v>0.03525855672067825</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.022067</v>
+      </c>
+      <c r="I14">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="J14">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.063353333333333</v>
+      </c>
+      <c r="N14">
+        <v>9.190059999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.1884019917097105</v>
+      </c>
+      <c r="P14">
+        <v>0.1884019917097105</v>
+      </c>
+      <c r="Q14">
+        <v>0.02253300600222222</v>
+      </c>
+      <c r="R14">
+        <v>0.20279705402</v>
+      </c>
+      <c r="S14">
+        <v>0.0002245634670617817</v>
+      </c>
+      <c r="T14">
+        <v>0.0002245634670617817</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.022067</v>
+      </c>
+      <c r="I15">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="J15">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.757657999999999</v>
+      </c>
+      <c r="N15">
+        <v>20.272974</v>
+      </c>
+      <c r="O15">
+        <v>0.4156086771445645</v>
+      </c>
+      <c r="P15">
+        <v>0.4156086771445645</v>
+      </c>
+      <c r="Q15">
+        <v>0.04970707969533333</v>
+      </c>
+      <c r="R15">
+        <v>0.4473637172579999</v>
+      </c>
+      <c r="S15">
+        <v>0.0004953797177704341</v>
+      </c>
+      <c r="T15">
+        <v>0.0004953797177704341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.022067</v>
+      </c>
+      <c r="I16">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="J16">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.493414666666666</v>
+      </c>
+      <c r="N16">
+        <v>10.480244</v>
+      </c>
+      <c r="O16">
+        <v>0.214851572590793</v>
+      </c>
+      <c r="P16">
+        <v>0.214851572590793</v>
+      </c>
+      <c r="Q16">
+        <v>0.02569639381644444</v>
+      </c>
+      <c r="R16">
+        <v>0.231267544348</v>
+      </c>
+      <c r="S16">
+        <v>0.0002560897239292708</v>
+      </c>
+      <c r="T16">
+        <v>0.0002560897239292708</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.007355666666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.022067</v>
+      </c>
+      <c r="I17">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="J17">
+        <v>0.001191937861292829</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.945239333333333</v>
+      </c>
+      <c r="N17">
+        <v>8.835718</v>
+      </c>
+      <c r="O17">
+        <v>0.1811377585549322</v>
+      </c>
+      <c r="P17">
+        <v>0.1811377585549322</v>
+      </c>
+      <c r="Q17">
+        <v>0.02166419878955556</v>
+      </c>
+      <c r="R17">
+        <v>0.194977789106</v>
+      </c>
+      <c r="S17">
+        <v>0.0002159049525313427</v>
+      </c>
+      <c r="T17">
+        <v>0.0002159049525313427</v>
       </c>
     </row>
   </sheetData>
